--- a/Negócio/Planilha pontuação de avaliação.xlsx
+++ b/Negócio/Planilha pontuação de avaliação.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>PRINCIPAIS</t>
   </si>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,7 +330,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,17 +378,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -398,9 +413,21 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink seguido" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="medium">
@@ -409,22 +436,13 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -434,13 +452,13 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -450,13 +468,13 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -466,13 +484,13 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -480,6 +498,12 @@
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -487,50 +511,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="AL59:AL74" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="AL59:AL74" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="AL59:AL74"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1" dataDxfId="18"/>
+    <tableColumn id="1" name="Column1" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="AN59:AN75" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="AN59:AN75" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="AN59:AN75"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1" dataDxfId="14"/>
+    <tableColumn id="1" name="Column1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="AP59:AP75" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="AP59:AP75" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="AP59:AP75"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1" dataDxfId="10"/>
+    <tableColumn id="1" name="Column1" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="AR59:AR76" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="AR59:AR76" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="AR59:AR76"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1" dataDxfId="6"/>
+    <tableColumn id="1" name="Column1" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="AT59:AT75" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="AT59:AT75" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="AT59:AT75"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1" dataDxfId="3"/>
+    <tableColumn id="1" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -857,18 +881,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AI58:AV76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="AI58:AV95"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AH49" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AP79" sqref="AP79"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AH78" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AL80" sqref="AL80:AP95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="35" max="35" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="2.5" style="10" customWidth="1"/>
     <col min="40" max="40" width="14.5" style="1" customWidth="1"/>
     <col min="41" max="41" width="2.5" style="10" customWidth="1"/>
@@ -879,8 +903,8 @@
     <col min="46" max="46" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="58" spans="35:46" ht="16" thickBot="1"/>
-    <row r="59" spans="35:46" ht="16" thickBot="1">
+    <row r="58" spans="35:46" ht="16.5" thickBot="1"/>
+    <row r="59" spans="35:46" ht="16.5" thickBot="1">
       <c r="AI59" s="2" t="s">
         <v>0</v>
       </c>
@@ -902,7 +926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="35:46" ht="16" thickBot="1">
+    <row r="60" spans="35:46" ht="16.5" thickBot="1">
       <c r="AI60" s="6"/>
       <c r="AJ60" s="7"/>
       <c r="AK60" s="8"/>
@@ -922,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="35:46" ht="16" thickBot="1">
+    <row r="61" spans="35:46" ht="16.5" thickBot="1">
       <c r="AL61" s="13" t="s">
         <v>5</v>
       </c>
@@ -939,8 +963,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="35:46" ht="16" thickBot="1"/>
-    <row r="63" spans="35:46" ht="16" thickBot="1">
+    <row r="62" spans="35:46" ht="16.5" thickBot="1"/>
+    <row r="63" spans="35:46" ht="16.5" thickBot="1">
       <c r="AI63" t="s">
         <v>6</v>
       </c>
@@ -963,7 +987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="35:46" ht="16" thickBot="1">
+    <row r="64" spans="35:46" ht="16.5" thickBot="1">
       <c r="AI64" t="s">
         <v>7</v>
       </c>
@@ -971,22 +995,22 @@
         <v>0.1</v>
       </c>
       <c r="AL64" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AP64" s="1">
         <v>0.15</v>
-      </c>
-      <c r="AP64" s="1">
-        <v>0.1</v>
       </c>
       <c r="AR64" s="1">
         <v>0.18</v>
       </c>
       <c r="AT64" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="65" spans="35:48" ht="16" thickBot="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="35:48" ht="16.5" thickBot="1">
       <c r="AI65" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="35:48" ht="16" thickBot="1">
+    <row r="66" spans="35:48" ht="16.5" thickBot="1">
       <c r="AI66" t="s">
         <v>9</v>
       </c>
@@ -1017,10 +1041,10 @@
         <v>0.18</v>
       </c>
       <c r="AL66" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AP66" s="1">
         <v>0.15</v>
@@ -1029,10 +1053,10 @@
         <v>0.18</v>
       </c>
       <c r="AT66" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="67" spans="35:48" ht="16" thickBot="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="35:48" ht="16.5" thickBot="1">
       <c r="AI67" t="s">
         <v>11</v>
       </c>
@@ -1055,24 +1079,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="35:48" ht="16" thickBot="1">
+    <row r="68" spans="35:48" ht="16.5" thickBot="1">
       <c r="AL68" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AN68" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AP68" s="1">
         <v>0.15</v>
-      </c>
-      <c r="AP68" s="1">
-        <v>0.17</v>
       </c>
       <c r="AR68" s="1">
         <v>0.18</v>
       </c>
       <c r="AT68" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="69" spans="35:48" ht="16" thickBot="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="35:48" ht="16.5" thickBot="1">
       <c r="AL69" s="14" t="s">
         <v>16</v>
       </c>
@@ -1089,24 +1113,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="35:48" ht="16" thickBot="1">
+    <row r="70" spans="35:48" ht="16.5" thickBot="1">
       <c r="AL70" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AN70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AP70" s="1">
         <v>0.15</v>
-      </c>
-      <c r="AP70" s="1">
-        <v>0.2</v>
       </c>
       <c r="AR70" s="1">
         <v>0.18</v>
       </c>
       <c r="AT70" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="71" spans="35:48" ht="16" thickBot="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="35:48" ht="16.5" thickBot="1">
       <c r="AL71" s="14" t="s">
         <v>17</v>
       </c>
@@ -1123,24 +1147,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="35:48" ht="16" thickBot="1">
+    <row r="72" spans="35:48" ht="16.5" thickBot="1">
       <c r="AL72" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AN72" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AP72" s="1">
         <v>0.15</v>
-      </c>
-      <c r="AP72" s="1">
-        <v>0.2</v>
       </c>
       <c r="AR72" s="1">
         <v>0.18</v>
       </c>
       <c r="AT72" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="73" spans="35:48" ht="16" thickBot="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73" spans="35:48" ht="16.5" thickBot="1">
       <c r="AL73" s="14" t="s">
         <v>12</v>
       </c>
@@ -1160,15 +1184,15 @@
     <row r="74" spans="35:48">
       <c r="AL74" s="1">
         <f>(+AL64+AL66+AL68+AL70+AL72)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN74" s="1">
         <f>(AN64+AN66+AN68+AN70+AN72)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP74" s="1">
         <f>(AP64+AP66+AP68+AP70+AP72)</f>
-        <v>0.82000000000000006</v>
+        <v>0.75</v>
       </c>
       <c r="AR74" s="1">
         <f>(AR64+AR66+AR68+AR70+AR72)</f>
@@ -1176,25 +1200,246 @@
       </c>
       <c r="AT74" s="1">
         <f>(AT64+AT66+AT68+AT70+AT72)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AV74">
         <f>SUM(AL74:AU74)</f>
-        <v>3.97</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="76" spans="35:48">
       <c r="AT76" s="11"/>
     </row>
+    <row r="80" spans="35:48" ht="16.5" thickBot="1">
+      <c r="AL80" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM80" s="19"/>
+      <c r="AN80" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO80" s="19"/>
+      <c r="AP80" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ80"/>
+    </row>
+    <row r="81" spans="38:43">
+      <c r="AL81" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM81" s="19"/>
+      <c r="AN81" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO81" s="19"/>
+      <c r="AP81" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ81"/>
+    </row>
+    <row r="82" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL82" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM82" s="19"/>
+      <c r="AN82" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO82" s="19"/>
+      <c r="AP82" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ82"/>
+    </row>
+    <row r="83" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL83" s="11"/>
+      <c r="AM83" s="19"/>
+      <c r="AN83" s="11"/>
+      <c r="AO83" s="19"/>
+      <c r="AP83" s="11"/>
+      <c r="AQ83"/>
+    </row>
+    <row r="84" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL84" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM84" s="19"/>
+      <c r="AN84" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO84" s="19"/>
+      <c r="AP84" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ84"/>
+    </row>
+    <row r="85" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL85" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="AM85" s="19"/>
+      <c r="AN85" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="AO85" s="19"/>
+      <c r="AP85" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="AQ85"/>
+    </row>
+    <row r="86" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL86" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM86" s="19"/>
+      <c r="AN86" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO86" s="19"/>
+      <c r="AP86" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ86"/>
+    </row>
+    <row r="87" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL87" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="AM87" s="19"/>
+      <c r="AN87" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="AO87" s="19"/>
+      <c r="AP87" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="AQ87"/>
+    </row>
+    <row r="88" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL88" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM88" s="19"/>
+      <c r="AN88" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO88" s="19"/>
+      <c r="AP88" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ88"/>
+    </row>
+    <row r="89" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL89" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="AM89" s="19"/>
+      <c r="AN89" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="AO89" s="19"/>
+      <c r="AP89" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="AQ89"/>
+    </row>
+    <row r="90" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL90" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM90" s="19"/>
+      <c r="AN90" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO90" s="19"/>
+      <c r="AP90" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ90"/>
+    </row>
+    <row r="91" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL91" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="AM91" s="19"/>
+      <c r="AN91" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="AO91" s="19"/>
+      <c r="AP91" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="AQ91"/>
+    </row>
+    <row r="92" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL92" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM92" s="19"/>
+      <c r="AN92" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO92" s="19"/>
+      <c r="AP92" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ92"/>
+    </row>
+    <row r="93" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL93" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="AM93" s="19"/>
+      <c r="AN93" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="AO93" s="19"/>
+      <c r="AP93" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="AQ93"/>
+    </row>
+    <row r="94" spans="38:43" ht="16.5" thickBot="1">
+      <c r="AL94" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM94" s="19"/>
+      <c r="AN94" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO94" s="19"/>
+      <c r="AP94" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ94"/>
+    </row>
+    <row r="95" spans="38:43">
+      <c r="AL95" s="11">
+        <f>(AL85+AL87+AL89+AL91+AL93)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AM95" s="19"/>
+      <c r="AN95" s="11">
+        <f>(AN85+AN87+AN89+AN91+AN93)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AO95" s="19"/>
+      <c r="AP95" s="11">
+        <f>(AP85+AP87+AP89+AP91+AP93)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ95"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <tableParts count="5">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
